--- a/guide41_others.xlsx
+++ b/guide41_others.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB52DA61-B438-4A42-A25D-D99BA0583F70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6EF70E-5E4B-474D-AFEF-4EB8A79743AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17910" windowHeight="11940" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17910" windowHeight="11940" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
   <si>
     <t>header1</t>
   </si>
@@ -106,36 +106,6 @@
     <t>代理ログイン</t>
   </si>
   <si>
-    <t>&lt;h3&gt;利用状況モニター&lt;/h3&gt;ダッシュボード画面のこの部分には、現在の利用ユーザ数がグラフ表示されます&lt;br&gt;教職員は、そのグラフをクリックすることで、さらに詳細情報を見ることができます&lt;br&gt;学生は利用状況のグラフしか見ることができません</t>
-    <rPh sb="4" eb="6">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;詳細情報&lt;/h3&gt;詳細情報のページでは、以下のようなグラフが表示されます&lt;br&gt;確認可能な指標は、直近 5 分間のアクセスユーザ数、直近 5 分間の課題提出数、直近 5分間の小テスト提出数、Apache のプロセス数、直近 5 分間平均の CPU 使用率、直近 5分間平均の 1 秒当たりのリクエスト数、直近 5 分間平均の 1 秒当たりの通信量、空きメモリ容量、スワップ使用量です&lt;br&gt;&lt;br&gt;
-また、日付を指定して、その日の状況を確認することもできます</t>
-    <rPh sb="4" eb="6">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;ダウンロード&lt;/h3&gt;指定した日付から過去に遡って、確認可能な指標のデータをダウンロードできます。
-クリックすると、各項目の値が CSV ファイルでダウンロードできます</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>その他、広大 moodle には以下のような機能があります</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>コースの活動へのアクセス状況を確認することができます</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -147,37 +117,15 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>コースのアクションメニューから「さらに...」を選びます</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コース管理画面で、［レポート］タブを選びます</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アクセス状況レポートのセクションから［条件を設定してレポートを表示］をクリックします
 すでに 1 回以上、レポートを表示している場合は「前回のレポートを表示」のリンクも表示されますので、同じレポートを見たい場合はそちらのリンクをクリックします</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;h3&gt;レポートに出力する活動の選択&lt;/h3&gt;最初の画面では、レポートに含めるコースモジュール（教材等）やレポートの種類を選択します&lt;br&gt;
-コースモジュールの選択は、それぞれのチェックボックスをクリックすることで選べるほか、セクション名のチェックボックスでまとめて選択したり、下部の活動モジュールの種類のボタンで一括して選択することも可能です&lt;br&gt;レポートの種類は、学生ごとのアクセス回数、学生のアクセス回数の推移、日別・時間帯別アクセス状況、アクセスデータの４種類から選べます&lt;br&gt;&lt;h4&gt;学生ごとのアクセス回数&lt;/h4&gt;選択した教材に対して、各学生がアクセスした回数を求め、表形式で表示します。この回数は moodle のログデータによって集計します。ただし、教材によっては１回のアクセスに対して、複数回のログを出力する場合がありますので、完全に正確なものではない点はご注意ください。また、表示している表は CSV ファイルとしてダウンロードできます。&lt;h4&gt;学生のアクセス回数の推移&lt;/h4&gt;選択した教材に対して、学生が日別で何回アクセスしたのかを、活動ごとにグラフで表示します。学生の大まかな学習行動を把握するためのものです&lt;h4&gt;日別・時間帯別アクセス状況&lt;/h4&gt;選択した教材に対して、学生が日別でどのような時間帯にアクセスしたのかを、分布グラフで表示します。こちらも学生の大まかな学習行動を時間帯で把握することができます。&lt;h4&gt;アクセスデータ&lt;/h4&gt;選択した教材に対して、コース内の学生ごとのアクセス時刻の詳細を出力することができます。また、このデータは CSV ファイルとしてダウンロードできます。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>広大 moodle では、他のユーザにあなたとして moodle の操作をしてもらうように依頼することができます。これを」代理ログイン」機能といい、教職員限定の機能です。「代理ログイン」で操作を依頼できるのは、あなたが教員（主担当教員、世話教員、副担当教員）として登録されているコースについてのみです。
-この機能は、トラブル発生時にコースの状況を誰かに確認してもらうためのもので、教材作成や採点を代行してもらうためのものではありません。教材作成や採点を依頼したい時は、誰が行ったのかを明確にするためにも TA などとしてコースに登録しましょう。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>&lt;h3&gt;代理ログインの依頼&lt;/h3&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>教職員のダッシュボードの「代替ログイン」ブロックの［あなたの代理ログインを設定する］ボタンをクリックします</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>［代理ログイン設定を追加する］ボタンをクリックします</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -191,10 +139,6 @@
   </si>
   <si>
     <t>&lt;h3&gt;代理ログインの依頼解除&lt;/h3&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;代理ログインの操作&lt;/h3&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -205,23 +149,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「代理ログイン」の依頼を解除したい場合は［解除］ボタンをクリックします
-確認のメッセージが表示されますので、［OK］ボタンをクリックすると、設定が削除されます</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>他の教職員から「代理ログイン」を依頼されると、ダッシュボードに以下のように依頼者名が表示されます
-依頼者の名前をクリックすると、その依頼者として「代理ログイン」ができます
-操作を終えてあなた自身に戻りたい時は、一旦ログアウトする必要があります
-代理ログインの最中は以下のように、画面に「～としてログインしています」と表示されます</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>一度、ログアウトする必要があります。ユーザメニューの［ログアウト］を選びます
-次にログインしたときには、自分自身としてログインしています</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>&lt;h3&gt;その他の機能&lt;/h3&gt;その他、広大moodleには以下のような機能があります。</t>
     <rPh sb="6" eb="7">
       <t>タ</t>
@@ -255,23 +182,168 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>others2_1.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>others3_1.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;詳細情報&lt;/h3&gt;詳細情報のページでは、以下のようなグラフが表示されます&lt;br&gt;&lt;br&gt;確認可能な指標は、直近 5 分間のアクセスユーザ数、直近 5 分間の課題提出数、直近 5分間の小テスト提出数、Apache のプロセス数、直近 5 分間平均の CPU 使用率、直近 5分間平均の 1 秒当たりのリクエスト数、直近 5 分間平均の 1 秒当たりの通信量、空きメモリ容量、スワップ使用量です&lt;br&gt;&lt;br&gt;また、日付を指定して、その日の状況を確認することもできます</t>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>広大 moodle では、他のユーザにあなたとして moodle の操作をしてもらうように依頼することができます。
+これを「代理ログイン」機能といい、教職員限定の機能です。「代理ログイン」で操作を依頼できるのは、あなたが教員（主担当教員、世話教員、副担当教員）として登録されているコースについてのみです。
+この機能は、トラブル発生時にコースの状況を誰かに確認してもらうためのもので、教材作成や採点を代行してもらうためのものではありません。教材作成や採点を依頼したい時は、誰が行ったのかを明確にするためにも TA などとしてコースに登録しましょう。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認のメッセージが表示されますので、［OK］ボタンをクリックすると、設定が削除されます</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「代理ログイン」の依頼を解除したい場合は［解除］ボタンをクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>次にログインしたときには、自分自身としてログインしています</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一度、ログアウトする必要があります。ユーザメニューの［ログアウト］を選びます</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;レポートに出力する活動の選択&lt;/h3&gt;最初の画面では、レポートに含めるコースモジュール（教材等）やレポートの種類を選択します&lt;br&gt;コースモジュールの選択は、それぞれのチェックボックスをクリックすることで選べるほか、セクション名のチェックボックスでまとめて選択したり、下部の活動モジュールの種類のボタンで一括して選択することも可能です&lt;br&gt;レポートの種類は、学生ごとのアクセス回数、学生のアクセス回数の推移、日別・時間帯別アクセス状況、アクセスデータの４種類から選べます</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;学生ごとのアクセス回数&lt;/h4&gt;選択した教材に対して、各学生がアクセスした回数を求め、表形式で表示します&lt;br&gt;この回数は moodle のログデータによって集計します&lt;br&gt;ただし、教材によっては１回のアクセスに対して、複数回のログを出力する場合がありますので、完全に正確なものではない点はご注意ください&lt;br&gt;また、表示している表は CSV ファイルとしてダウンロードできます&lt;br&gt;&lt;h4&gt;学生のアクセス回数の推移&lt;/h4&gt;選択した教材に対して、学生が日別で何回アクセスしたのかを、活動ごとにグラフで表示します&lt;br&gt;学生の大まかな学習行動を把握するためのものです&lt;br&gt;&lt;h4&gt;日別・時間帯別アクセス状況&lt;/h4&gt;選択した教材に対して、学生が日別でどのような時間帯にアクセスしたのかを、分布グラフで表示します&lt;br&gt;こちらも学生の大まかな学習行動を時間帯で把握することができます&lt;br&gt;&lt;h4&gt;アクセスデータ&lt;/h4&gt;選択した教材に対して、コース内の学生ごとのアクセス時刻の詳細を出力することができます&lt;br&gt;また、このデータは CSV ファイルとしてダウンロードできます</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;利用状況モニター&lt;/h3&gt;ダッシュボード画面右上の[ブロックドロワ]を開くと、現在の利用ユーザ数がグラフ表示されます&lt;br&gt;&lt;br&gt;教職員は、そのグラフをクリックすることで、さらに詳細情報を見ることができます&lt;br&gt;学生は利用状況のグラフしか見ることができません</t>
+    <rPh sb="4" eb="6">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>others1_2.png</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>others1_3.png</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>others2_1.png</t>
+  </si>
+  <si>
+    <t>others1_4.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;ダウンロード&lt;/h3&gt;指定した日付から過去に遡って、確認可能な指標のデータをダウンロードできます&lt;br&gt;[ダウンロード]をクリックすると、各項目の値が CSV ファイルでダウンロードできます</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コースに入り、コース名下の[レポート]をクリックします</t>
+    <rPh sb="4" eb="5">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シタ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>others2_2.png</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>others3_1.png</t>
+  </si>
+  <si>
+    <t>others2_3.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>others2_4.png</t>
+  </si>
+  <si>
+    <t>教職員のダッシュボード画面右上の[ブロックドロワ]を開き、「代理ログイン」ブロックの［あなたの代理ログインを設定する］ボタンをクリックします</t>
+    <rPh sb="30" eb="32">
+      <t>ダイリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>others3_2.png</t>
+  </si>
+  <si>
+    <t>others3_3.png</t>
+  </si>
+  <si>
+    <t>others3_4.png</t>
+  </si>
+  <si>
+    <t>others3_5.png</t>
+  </si>
+  <si>
+    <t>others3_6.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>others3_7.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;代理ログインの操作&lt;/h3&gt;他の教職員から「代理ログイン」を依頼されると、教職員のダッシュボード画面右上の[ブロックドロワ]の「代理ログイン」ブロックに右図のように依頼者名が表示されます</t>
+    <rPh sb="80" eb="82">
+      <t>ミギズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>others3_8.png</t>
+  </si>
+  <si>
+    <t>others3_9.png</t>
+  </si>
+  <si>
+    <t>others3_10.png</t>
+  </si>
+  <si>
+    <t>その依頼者として「代理ログイン」したい時は、依頼者の名前をクリックし、「このセッションでは…」というメッセージが表示されたら、[続ける]をクリックします
+※代理ログインの最中は画面右上に「～としてログインしています」と表示されます
+※操作を終えてあなた自身に戻りたい時は、以下の手順のとおり一旦ログアウトする必要があります</t>
+    <rPh sb="19" eb="20">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>テジュン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -691,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38953DD-C77F-4062-989A-FDF98227C4BA}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B11:B14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -737,7 +809,7 @@
     </row>
     <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -754,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D077C58-5FEC-48A5-A5C6-05E88FEFA561}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -791,7 +863,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -800,38 +872,40 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="C8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -843,17 +917,19 @@
     <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
@@ -896,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37FF3449-498A-45EA-ADD9-E3FA165596F4}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -943,60 +1019,70 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" ht="175.5" x14ac:dyDescent="0.15">
+      <c r="B11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
-      <c r="B12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B12" s="3"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" ht="108" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
+      <c r="B13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
@@ -1034,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{264ED3DF-1CEC-4186-A065-E8AE6B6F2B43}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1080,108 +1166,171 @@
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
-      <c r="B9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-      <c r="B13" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
-      <c r="B14" s="10" t="s">
-        <v>33</v>
+      <c r="B14" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="C15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
-      <c r="B16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B16" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="1"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1191,6 +1340,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
@@ -1206,15 +1364,6 @@
     <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1467,20 +1616,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
     <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/guide41_others.xlsx
+++ b/guide41_others.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6EF70E-5E4B-474D-AFEF-4EB8A79743AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FAAD4F-28DF-4816-9BF4-2D92620BCF51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17910" windowHeight="11940" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17910" windowHeight="11940" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -117,11 +117,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アクセス状況レポートのセクションから［条件を設定してレポートを表示］をクリックします
-すでに 1 回以上、レポートを表示している場合は「前回のレポートを表示」のリンクも表示されますので、同じレポートを見たい場合はそちらのリンクをクリックします</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>&lt;h3&gt;代理ログインの依頼&lt;/h3&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -344,6 +339,11 @@
     <rPh sb="140" eb="142">
       <t>テジュン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アクセス状況レポートのセクションから［条件を設定してアクセスレポートを表示］をクリックします
+すでに 1 回以上、レポートを表示している場合は「前回のレポートを表示」のリンクも表示されますので、同じレポートを見たい場合はそちらのリンクをクリックします</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -809,7 +809,7 @@
     </row>
     <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -863,7 +863,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -877,13 +877,13 @@
     <row r="7" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -893,19 +893,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -917,13 +917,13 @@
     <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -972,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37FF3449-498A-45EA-ADD9-E3FA165596F4}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1031,25 +1031,25 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -1058,13 +1058,13 @@
     <row r="11" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -1075,13 +1075,13 @@
     <row r="13" spans="1:4" ht="108" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -1122,7 +1122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{264ED3DF-1CEC-4186-A065-E8AE6B6F2B43}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -1169,25 +1169,25 @@
     <row r="6" spans="1:4" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -1197,43 +1197,43 @@
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -1242,37 +1242,37 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -1282,19 +1282,19 @@
         <v>4</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -1305,25 +1305,25 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -1340,15 +1340,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
@@ -1364,6 +1355,15 @@
     <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1616,20 +1616,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
     <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/guide41_others.xlsx
+++ b/guide41_others.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FAAD4F-28DF-4816-9BF4-2D92620BCF51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEFEDCD-7713-432B-94F9-EEDD216B8E20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17910" windowHeight="11940" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17910" windowHeight="11940" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -89,23 +89,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>利用状況モニター</t>
-    <rPh sb="0" eb="2">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アクセス状況レポート</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>代理ログイン</t>
-  </si>
-  <si>
     <t>コースの活動へのアクセス状況を確認することができます</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -346,12 +329,21 @@
 すでに 1 回以上、レポートを表示している場合は「前回のレポートを表示」のリンクも表示されますので、同じレポートを見たい場合はそちらのリンクをクリックします</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>広大 moodle の利用状況を確認する：利用状況モニター</t>
+  </si>
+  <si>
+    <t>活動（小テスト，課題等）やリソース（ファイル，URL等）のアクセス状況を確認する：アクセス状況レポート</t>
+  </si>
+  <si>
+    <t>他のユーザに代理でログインしてもらう：代理ログイン</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,6 +386,12 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -417,7 +415,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -445,6 +443,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -809,7 +810,7 @@
     </row>
     <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -846,8 +847,8 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
+      <c r="B2" s="11" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -863,7 +864,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -877,13 +878,13 @@
     <row r="7" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -893,19 +894,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -917,13 +918,13 @@
     <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -972,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37FF3449-498A-45EA-ADD9-E3FA165596F4}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -992,8 +993,8 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
+      <c r="B2" s="11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1019,37 +1020,37 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -1058,13 +1059,13 @@
     <row r="11" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -1075,13 +1076,13 @@
     <row r="13" spans="1:4" ht="108" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -1122,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{264ED3DF-1CEC-4186-A065-E8AE6B6F2B43}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1142,8 +1143,8 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
+      <c r="B2" s="11" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1169,25 +1170,25 @@
     <row r="6" spans="1:4" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -1197,43 +1198,43 @@
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -1242,37 +1243,37 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -1282,19 +1283,19 @@
         <v>4</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -1305,25 +1306,25 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -1340,6 +1341,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
@@ -1355,15 +1365,6 @@
     <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1616,20 +1617,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
     <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
